--- a/data/trans_dic/P17G_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,53</t>
+          <t>0,0; 18,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,59; 22,63</t>
+          <t>3,74; 23,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 13,67</t>
+          <t>1,59; 15,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,9</t>
+          <t>0,0; 57,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 10,9</t>
+          <t>1,28; 12,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 10,08</t>
+          <t>1,0; 9,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 8,25</t>
+          <t>0,97; 8,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,61; 19,74</t>
+          <t>2,46; 21,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 10,4</t>
+          <t>2,08; 11,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 12,67</t>
+          <t>3,26; 11,71</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 8,66</t>
+          <t>1,86; 8,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,25; 26,51</t>
+          <t>4,27; 23,6</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,54; 20,41</t>
+          <t>4,87; 20,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 11,08</t>
+          <t>1,89; 10,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,39; 23,32</t>
+          <t>7,81; 23,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 23,75</t>
+          <t>3,89; 23,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,48; 12,31</t>
+          <t>3,56; 12,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 10,04</t>
+          <t>1,94; 9,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,7; 14,0</t>
+          <t>4,93; 13,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,38; 20,6</t>
+          <t>6,15; 21,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,75; 12,66</t>
+          <t>5,01; 12,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 8,39</t>
+          <t>2,89; 8,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,19; 15,41</t>
+          <t>6,93; 15,57</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,25; 19,43</t>
+          <t>7,01; 18,63</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,05; 16,68</t>
+          <t>3,97; 17,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 9,82</t>
+          <t>2,27; 10,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 11,71</t>
+          <t>2,65; 11,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,87; 22,13</t>
+          <t>5,09; 21,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 10,43</t>
+          <t>2,71; 10,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 10,58</t>
+          <t>2,6; 11,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 11,85</t>
+          <t>3,85; 10,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,46; 16,92</t>
+          <t>7,32; 17,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 10,82</t>
+          <t>4,19; 10,68</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 8,97</t>
+          <t>3,24; 8,72</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,1; 9,6</t>
+          <t>3,98; 9,71</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,07; 16,57</t>
+          <t>8,19; 16,48</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,27; 17,53</t>
+          <t>4,55; 18,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 15,0</t>
+          <t>2,86; 15,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 17,02</t>
+          <t>5,65; 16,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,29; 17,99</t>
+          <t>6,05; 18,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,26; 11,95</t>
+          <t>3,36; 11,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,85</t>
+          <t>0,5; 4,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,57; 11,44</t>
+          <t>3,41; 10,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,01; 15,51</t>
+          <t>7,63; 15,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,88; 12,33</t>
+          <t>4,92; 11,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,8</t>
+          <t>2,11; 7,05</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,22; 11,82</t>
+          <t>5,29; 11,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,27; 14,9</t>
+          <t>8,34; 14,98</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,03; 14,21</t>
+          <t>4,0; 15,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,47; 15,34</t>
+          <t>3,51; 14,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,64; 12,84</t>
+          <t>4,06; 12,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,6; 10,19</t>
+          <t>2,81; 10,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,12; 12,44</t>
+          <t>3,44; 12,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 6,51</t>
+          <t>0,65; 5,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,09; 11,67</t>
+          <t>3,14; 11,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,7; 13,15</t>
+          <t>6,03; 13,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,75; 11,0</t>
+          <t>4,69; 11,28</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,55; 8,43</t>
+          <t>2,52; 8,43</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,24; 10,11</t>
+          <t>4,21; 10,21</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,32; 10,43</t>
+          <t>5,22; 10,47</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,02; 7,34</t>
+          <t>2,36; 7,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,2; 6,51</t>
+          <t>1,21; 7,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,87; 7,19</t>
+          <t>1,88; 7,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,54; 10,81</t>
+          <t>4,45; 10,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,79</t>
+          <t>0,99; 4,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,61</t>
+          <t>2,18; 6,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,91; 6,46</t>
+          <t>1,95; 6,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,26; 8,88</t>
+          <t>4,14; 8,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,98</t>
+          <t>1,93; 5,03</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,25; 5,45</t>
+          <t>2,13; 5,47</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,49; 5,94</t>
+          <t>2,31; 5,71</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,88; 8,79</t>
+          <t>4,84; 8,63</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,32; 9,44</t>
+          <t>5,14; 9,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,95</t>
+          <t>3,94; 7,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,52; 9,36</t>
+          <t>5,64; 9,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,99; 12,01</t>
+          <t>6,98; 11,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,99; 6,92</t>
+          <t>3,95; 6,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,13</t>
+          <t>2,82; 5,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,36</t>
+          <t>4,4; 7,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,68; 11,22</t>
+          <t>7,65; 11,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,87; 7,12</t>
+          <t>4,89; 7,2</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,61; 5,61</t>
+          <t>3,6; 5,61</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,29; 7,68</t>
+          <t>5,34; 7,57</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,99; 10,74</t>
+          <t>7,88; 10,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P17G_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,97</t>
+          <t>0,0; 16,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 23,92</t>
+          <t>3,73; 24,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 15,47</t>
+          <t>1,57; 15,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 12,3</t>
+          <t>1,31; 11,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,18</t>
+          <t>1,02; 9,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 8,42</t>
+          <t>0,99; 8,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 11,35</t>
+          <t>1,96; 10,29</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,26; 11,71</t>
+          <t>3,19; 12,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 8,71</t>
+          <t>1,82; 8,73</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,87; 20,32</t>
+          <t>4,65; 19,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 10,8</t>
+          <t>1,86; 10,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,81; 23,21</t>
+          <t>7,26; 23,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,56; 12,95</t>
+          <t>3,53; 12,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 9,83</t>
+          <t>1,94; 10,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,93; 13,82</t>
+          <t>4,93; 14,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,01; 12,78</t>
+          <t>5,13; 13,26</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 8,46</t>
+          <t>2,88; 8,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,93; 15,57</t>
+          <t>6,99; 15,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,97; 17,92</t>
+          <t>3,95; 16,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 10,2</t>
+          <t>2,27; 10,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 11,49</t>
+          <t>2,53; 11,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 10,61</t>
+          <t>3,1; 10,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 11,11</t>
+          <t>2,74; 11,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,85; 10,94</t>
+          <t>3,67; 11,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,19; 10,68</t>
+          <t>4,41; 10,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,24; 8,72</t>
+          <t>3,23; 9,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,98; 9,71</t>
+          <t>4,25; 9,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,55; 18,26</t>
+          <t>4,69; 18,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,86; 15,37</t>
+          <t>3,64; 15,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 16,78</t>
+          <t>5,64; 16,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 11,79</t>
+          <t>3,35; 11,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,37</t>
+          <t>0,5; 4,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 10,78</t>
+          <t>3,6; 11,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 11,87</t>
+          <t>4,82; 12,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 7,05</t>
+          <t>2,03; 6,96</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,29; 11,74</t>
+          <t>5,4; 11,63</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,0; 15,05</t>
+          <t>4,42; 14,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,51; 14,48</t>
+          <t>3,52; 16,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,06; 12,71</t>
+          <t>3,57; 13,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,44; 12,15</t>
+          <t>3,17; 12,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 5,89</t>
+          <t>0,66; 6,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,14; 11,86</t>
+          <t>3,03; 12,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,69; 11,28</t>
+          <t>4,68; 11,58</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,52; 8,43</t>
+          <t>2,5; 8,42</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,21; 10,21</t>
+          <t>4,23; 10,26</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,36; 7,97</t>
+          <t>2,2; 7,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,21; 7,29</t>
+          <t>1,24; 6,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,88; 7,24</t>
+          <t>1,75; 7,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,99; 4,67</t>
+          <t>1,22; 4,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,67</t>
+          <t>2,18; 6,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,95; 6,78</t>
+          <t>1,97; 6,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,03</t>
+          <t>1,98; 4,97</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,13; 5,47</t>
+          <t>2,21; 5,57</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,71</t>
+          <t>2,28; 5,79</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,14; 9,46</t>
+          <t>5,37; 9,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,94; 7,71</t>
+          <t>4,11; 7,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,64; 9,39</t>
+          <t>5,63; 9,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,95; 6,79</t>
+          <t>3,84; 6,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,15</t>
+          <t>2,75; 5,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,4; 7,14</t>
+          <t>4,49; 7,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,89; 7,2</t>
+          <t>4,83; 7,26</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,6; 5,61</t>
+          <t>3,54; 5,63</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,34; 7,57</t>
+          <t>5,26; 7,48</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P17G_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>1,41%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,0</t>
+          <t>0,0; 2,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,73; 24,38</t>
+          <t>0,46; 3,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 15,4</t>
+          <t>0,25; 2,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,08</t>
+          <t>0,0; 5,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 11,94</t>
+          <t>0,24; 2,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 9,26</t>
+          <t>0,23; 2,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 8,46</t>
+          <t>0,23; 2,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,46; 21,42</t>
+          <t>0,41; 3,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 10,29</t>
+          <t>0,3; 1,72</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 12,24</t>
+          <t>0,56; 2,17</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 8,73</t>
+          <t>0,36; 1,64</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,27; 23,6</t>
+          <t>0,46; 3,08</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,97%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>2,55%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,65; 19,88</t>
+          <t>0,47; 2,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,86; 10,93</t>
+          <t>0,27; 1,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,26; 23,72</t>
+          <t>0,98; 3,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,89; 23,01</t>
+          <t>0,74; 4,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,53; 12,33</t>
+          <t>0,83; 3,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 10,21</t>
+          <t>0,51; 2,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,93; 14,32</t>
+          <t>1,48; 4,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,15; 21,14</t>
+          <t>1,61; 5,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,13; 13,26</t>
+          <t>0,82; 2,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,88; 8,63</t>
+          <t>0,52; 1,74</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,99; 15,5</t>
+          <t>1,51; 3,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,01; 18,63</t>
+          <t>1,51; 4,11</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>2,17%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 16,56</t>
+          <t>0,58; 2,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 10,72</t>
+          <t>0,42; 1,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 11,37</t>
+          <t>0,57; 2,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,09; 21,62</t>
+          <t>0,94; 3,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 10,48</t>
+          <t>0,86; 3,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 11,1</t>
+          <t>0,76; 2,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,67; 11,39</t>
+          <t>0,96; 3,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,32; 17,28</t>
+          <t>1,56; 3,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,41; 10,98</t>
+          <t>0,92; 2,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 9,04</t>
+          <t>0,75; 2,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,25; 9,92</t>
+          <t>1,0; 2,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,19; 16,48</t>
+          <t>1,52; 3,17</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>2,41%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,69; 18,13</t>
+          <t>0,71; 2,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,64; 15,79</t>
+          <t>0,54; 2,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,64; 16,95</t>
+          <t>1,44; 4,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,05; 18,25</t>
+          <t>1,21; 3,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 11,71</t>
+          <t>0,99; 3,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,3</t>
+          <t>0,16; 1,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,6; 11,44</t>
+          <t>0,97; 3,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,63; 15,42</t>
+          <t>1,9; 3,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,82; 12,14</t>
+          <t>1,09; 2,63</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,96</t>
+          <t>0,51; 1,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,4; 11,63</t>
+          <t>1,38; 3,25</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,34; 14,98</t>
+          <t>1,74; 3,3</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>1,86%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,42; 14,83</t>
+          <t>1,39; 4,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,52; 16,1</t>
+          <t>1,02; 4,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,57; 13,04</t>
+          <t>1,11; 4,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,81; 10,94</t>
+          <t>0,65; 2,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,17; 12,53</t>
+          <t>1,08; 4,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 6,42</t>
+          <t>0,23; 2,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,03; 12,36</t>
+          <t>1,17; 4,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,03; 13,65</t>
+          <t>1,52; 3,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,68; 11,58</t>
+          <t>1,57; 3,94</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 8,42</t>
+          <t>0,83; 2,82</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,23; 10,26</t>
+          <t>1,41; 3,69</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,22; 10,47</t>
+          <t>1,32; 2,64</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>1,81%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,2; 7,43</t>
+          <t>1,04; 3,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,24; 6,3</t>
+          <t>0,54; 3,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,75; 7,34</t>
+          <t>0,71; 2,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,45; 10,51</t>
+          <t>1,26; 3,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,9</t>
+          <t>0,58; 2,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,18</t>
+          <t>0,97; 3,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,59</t>
+          <t>0,93; 3,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,53</t>
+          <t>1,08; 2,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,97</t>
+          <t>0,91; 2,31</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,21; 5,57</t>
+          <t>1,04; 2,55</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,79</t>
+          <t>0,97; 2,53</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,84; 8,63</t>
+          <t>1,33; 2,45</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>2,05%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,37; 9,29</t>
+          <t>1,05; 1,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,11; 7,65</t>
+          <t>0,92; 1,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,63; 9,58</t>
+          <t>1,39; 2,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,98; 11,84</t>
+          <t>1,38; 2,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,84; 6,82</t>
+          <t>1,22; 2,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,09</t>
+          <t>0,86; 1,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,49; 7,34</t>
+          <t>1,43; 2,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,65; 11,17</t>
+          <t>1,81; 2,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,83; 7,26</t>
+          <t>1,26; 1,87</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,54; 5,63</t>
+          <t>0,99; 1,55</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,26; 7,48</t>
+          <t>1,54; 2,18</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,88; 10,84</t>
+          <t>1,72; 2,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P17G_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,32%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,19</t>
+          <t>0,0; 4,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,95</t>
+          <t>0,37; 4,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 3,08</t>
+          <t>0,43; 3,02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,43%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,75</t>
+          <t>0,82; 5,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,25</t>
+          <t>1,35; 4,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,11</t>
+          <t>1,41; 4,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,2%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,73</t>
+          <t>0,94; 3,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 3,85</t>
+          <t>1,6; 3,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,17</t>
+          <t>1,54; 3,22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,48</t>
+          <t>0,62; 2,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,93</t>
+          <t>1,8; 3,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 3,3</t>
+          <t>1,14; 3,02</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,87%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,75</t>
+          <t>0,66; 2,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,45</t>
+          <t>1,54; 3,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,64</t>
+          <t>1,32; 2,65</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,69%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,63</t>
+          <t>0,94; 4,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,15</t>
+          <t>0,67; 5,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,81</t>
+          <t>0,28; 2,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,09</t>
+          <t>1,46; 4,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,35</t>
+          <t>0,56; 3,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,03</t>
+          <t>0,84; 3,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,05</t>
+          <t>1,08; 4,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,47</t>
+          <t>0,25; 2,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,31</t>
+          <t>1,02; 3,14</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,04; 2,55</t>
+          <t>1,08; 3,37</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,53</t>
+          <t>0,97; 3,2</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,33; 2,45</t>
+          <t>0,82; 2,58</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,43; 4,53</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,76</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,65; 4,37</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 2,79</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 2,89</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 3,68</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 3,05</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 3,26</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 2,54</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 2,43</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,65; 2,76</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1,08; 2,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1,42%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1,86%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2,17%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1,26%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>1,05; 1,94</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0,92; 1,81</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>1,39; 2,39</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>1,38; 2,42</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 2,32</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>1,22; 2,1</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>0,86; 1,62</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>1,43; 2,37</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>1,81; 2,79</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1,71; 2,7</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>1,26; 1,87</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>0,99; 1,55</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>1,54; 2,18</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 2,41</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1,6; 2,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P17G_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,27</t>
+          <t>0,0; 2,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 3,33</t>
+          <t>0,45; 3,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,25</t>
+          <t>0,25; 2,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,85</t>
+          <t>0,0; 4,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,15</t>
+          <t>0,24; 2,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,35</t>
+          <t>0,23; 2,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,06</t>
+          <t>0,23; 2,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,0</t>
+          <t>0,37; 3,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,72</t>
+          <t>0,22; 1,54</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,17</t>
+          <t>0,58; 2,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,64</t>
+          <t>0,38; 1,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,02</t>
+          <t>0,48; 3,29</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,32</t>
+          <t>0,46; 2,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,65</t>
+          <t>0,27; 1,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,65</t>
+          <t>1,06; 3,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 5,15</t>
+          <t>0,8; 4,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,18</t>
+          <t>0,83; 3,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,73</t>
+          <t>0,51; 2,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,19</t>
+          <t>1,32; 4,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,72</t>
+          <t>1,38; 4,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,23</t>
+          <t>0,84; 2,26</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,74</t>
+          <t>0,53; 1,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,44</t>
+          <t>1,47; 3,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,41; 4,1</t>
+          <t>1,35; 4,06</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,64</t>
+          <t>0,57; 2,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,99</t>
+          <t>0,42; 1,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,57</t>
+          <t>0,6; 2,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,76</t>
+          <t>0,83; 3,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,38</t>
+          <t>0,84; 2,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,88</t>
+          <t>0,8; 3,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,0</t>
+          <t>0,95; 3,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,93</t>
+          <t>1,59; 3,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,25</t>
+          <t>0,85; 2,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,07</t>
+          <t>0,75; 2,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,38</t>
+          <t>0,98; 2,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,22</t>
+          <t>1,54; 3,2</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,78</t>
+          <t>0,65; 2,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,72</t>
+          <t>0,65; 2,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,19</t>
+          <t>1,44; 4,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,94</t>
+          <t>0,59; 2,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,7</t>
+          <t>1,03; 3,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,42</t>
+          <t>0,16; 1,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,14</t>
+          <t>0,84; 3,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,81</t>
+          <t>1,8; 3,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,63</t>
+          <t>1,06; 2,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,73</t>
+          <t>0,43; 1,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,25</t>
+          <t>1,42; 3,15</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,02</t>
+          <t>1,19; 2,87</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,78</t>
+          <t>1,37; 4,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,57</t>
+          <t>1,06; 4,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 4,11</t>
+          <t>1,13; 4,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,75</t>
+          <t>0,71; 2,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,46</t>
+          <t>1,24; 4,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,27</t>
+          <t>0,23; 2,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,64</t>
+          <t>1,26; 4,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,45</t>
+          <t>1,49; 3,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 3,94</t>
+          <t>1,55; 3,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,82</t>
+          <t>0,83; 2,95</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,69</t>
+          <t>1,44; 3,6</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,65</t>
+          <t>1,33; 2,67</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,27</t>
+          <t>0,92; 4,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,67; 5,01</t>
+          <t>0,67; 4,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,92</t>
+          <t>0,28; 2,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,51</t>
+          <t>1,55; 4,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,39</t>
+          <t>0,53; 3,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,85</t>
+          <t>0,85; 3,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,86</t>
+          <t>1,26; 4,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,06</t>
+          <t>0,36; 2,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,14</t>
+          <t>0,89; 2,98</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,37</t>
+          <t>1,07; 3,45</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,2</t>
+          <t>1,05; 3,34</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,58</t>
+          <t>0,84; 2,59</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,53</t>
+          <t>0,42; 4,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,76</t>
+          <t>0,0; 1,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,37</t>
+          <t>0,7; 4,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,79</t>
+          <t>0,43; 2,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,89</t>
+          <t>0,32; 2,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,68</t>
+          <t>0,82; 3,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,05</t>
+          <t>0,32; 2,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,26</t>
+          <t>1,26; 3,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,54</t>
+          <t>0,55; 2,89</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,43</t>
+          <t>0,5; 2,36</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,76</t>
+          <t>0,61; 2,81</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,64</t>
+          <t>1,12; 2,54</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,94</t>
+          <t>1,04; 1,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,92; 1,81</t>
+          <t>0,92; 1,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,39</t>
+          <t>1,35; 2,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,32</t>
+          <t>1,24; 2,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,1</t>
+          <t>1,22; 2,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,86; 1,62</t>
+          <t>0,91; 1,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,37</t>
+          <t>1,47; 2,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,71; 2,7</t>
+          <t>1,68; 2,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,26; 1,87</t>
+          <t>1,25; 1,84</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,99; 1,55</t>
+          <t>1,02; 1,61</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,54; 2,18</t>
+          <t>1,52; 2,23</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,33</t>
+          <t>1,58; 2,31</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha acudido a un médico privado en su última visita</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6115</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4135</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4940</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4117</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3980</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2938</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4508</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6867</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>10096</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>9448</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12039</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2048; 14173</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1048; 9553</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18605</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1109; 9999</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>989; 9958</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>924; 8844</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1171; 12212</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2117; 14820</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5088; 19670</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3062; 14231</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3415; 23479</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>7790</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5459</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12604</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8771</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11103</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7788</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13458</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13943</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18892</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>13247</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>26062</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>22714</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3356; 15803</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1837; 11837</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6237; 21970</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3368; 20164</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5168; 19808</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3101; 16191</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7411; 22757</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7018; 24751</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>11376; 30801</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>6785; 22644</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>16890; 39345</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12605; 37885</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8320</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6597</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8977</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>9890</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11136</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>11221</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11732</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>13884</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>19457</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>17818</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>20709</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>23774</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3647; 16877</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2853; 13181</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3984; 17595</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4456; 18226</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5775; 19944</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5620; 21335</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6272; 19763</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8632; 21260</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11231; 29760</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10419; 29442</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13029; 31651</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16561; 34555</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>7640</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8496</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>16162</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>14359</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10255</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3128</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>11665</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>19125</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>17895</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>11624</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>27827</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>33484</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3344; 14038</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3962; 17054</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>9253; 28242</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5248; 25357</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5319; 18364</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>963; 8442</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>5395; 19679</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>12808; 26746</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>10900; 27587</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>5323; 21066</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>18228; 40499</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>19101; 45938</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>10340</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9718</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>10414</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>8189</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>10083</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4082</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>12091</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>12513</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>20423</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>13800</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>22505</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>20703</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5313; 18205</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4491; 18806</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5391; 19237</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3989; 15405</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5008; 18225</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1044; 9888</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6163; 21771</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8165; 18431</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>12220; 30141</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>7205; 25660</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>13923; 34805</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>14712; 29572</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>6334</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3853</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>9879</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4918</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>6884</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>9603</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>6549</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>11252</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>13170</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>13456</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>16428</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2675; 12630</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2077; 15193</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>920; 9385</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>5707; 16691</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1825; 11040</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2992; 13928</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>4743; 18366</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2184; 12535</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>5651; 18897</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>7011; 22699</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>7434; 23630</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>8167; 25282</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3299</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>5392</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3377</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3534</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>6539</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>3901</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>8733</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>6833</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>7492</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>9294</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>12110</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>890; 9507</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4863</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1789; 12403</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1217; 7328</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1075; 9083</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3156; 14413</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1264; 10302</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>5350; 14410</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2985; 15714</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3160; 14910</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>3964; 18309</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>7913; 17986</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>46473</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>43624</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>61538</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>59406</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>55146</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>43622</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>65388</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>79255</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>101619</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>87246</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>126926</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>138661</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>33859; 61432</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>31342; 60654</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>45609; 79830</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>42980; 80472</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>41338; 71712</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>32042; 58504</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>51758; 86960</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>61378; 95841</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>83093; 122514</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>70533; 111291</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>104946; 153876</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>112788; 164489</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>